--- a/out/merge-sort.xlsx
+++ b/out/merge-sort.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berkay\Documents\GitHub\CSE246-AlgorithmAnalysis\out\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -66,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +99,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,10 +177,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,18 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -423,158 +404,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.3010263442993161E-2</v>
+        <v>0.01000499725341797</v>
       </c>
       <c r="C2">
-        <v>1.2007951736450201E-2</v>
+        <v>0.006004810333251953</v>
       </c>
       <c r="D2">
-        <v>1.002383232116699E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.005004405975341797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.16211223602294919</v>
+        <v>0.160111665725708</v>
       </c>
       <c r="C3">
-        <v>0.14912223815917969</v>
+        <v>0.08005762100219727</v>
       </c>
       <c r="D3">
-        <v>0.1340944766998291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.06506228446960449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.27719354629516602</v>
+        <v>0.3212249279022217</v>
       </c>
       <c r="C4">
-        <v>0.24417304992675781</v>
+        <v>0.1671183109283447</v>
       </c>
       <c r="D4">
-        <v>0.25019335746765142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.1501052379608154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.3832707405090332</v>
+        <v>0.4212963581085205</v>
       </c>
       <c r="C5">
-        <v>0.52637171745300293</v>
+        <v>0.4453141689300537</v>
       </c>
       <c r="D5">
-        <v>0.37426304817199713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.3312332630157471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.54437947273254395</v>
+        <v>0.5333747863769531</v>
       </c>
       <c r="C6">
-        <v>0.57742524147033691</v>
+        <v>0.3662605285644531</v>
       </c>
       <c r="D6">
-        <v>0.55237364768981934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2852187156677246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.73251724243164063</v>
+        <v>0.6354482173919678</v>
       </c>
       <c r="C7">
-        <v>0.7355194091796875</v>
+        <v>0.4813399314880371</v>
       </c>
       <c r="D7">
-        <v>0.70149421691894531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.3512487411499023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9176485538482666</v>
+        <v>0.8215782642364502</v>
       </c>
       <c r="C8">
-        <v>0.95267224311828613</v>
+        <v>0.5143635272979736</v>
       </c>
       <c r="D8">
-        <v>0.8025665283203125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5023720264434814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.010713577270508</v>
+        <v>0.9636795520782471</v>
       </c>
       <c r="C9">
-        <v>1.0617673397064209</v>
+        <v>0.6414544582366943</v>
       </c>
       <c r="D9">
-        <v>1.0267243385314939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5003695487976074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.166843175888062</v>
+        <v>1.147809982299805</v>
       </c>
       <c r="C10">
-        <v>1.218840599060059</v>
+        <v>0.7095024585723877</v>
       </c>
       <c r="D10">
-        <v>1.1988639831542971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7545318603515625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.4039931297302251</v>
+        <v>1.342945098876953</v>
       </c>
       <c r="C11">
-        <v>1.342950105667114</v>
+        <v>0.9076588153839111</v>
       </c>
       <c r="D11">
-        <v>1.3689649105072019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7905418872833252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1.553113460540771</v>
+        <v>1.457028150558472</v>
       </c>
       <c r="C12">
-        <v>1.534064769744873</v>
+        <v>1.035734891891479</v>
       </c>
       <c r="D12">
-        <v>1.480044841766357</v>
+        <v>0.8696134090423584</v>
       </c>
     </row>
   </sheetData>
